--- a/schematic/SmartSleeveBOM.xlsx
+++ b/schematic/SmartSleeveBOM.xlsx
@@ -839,7 +839,8 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/schematic/SmartSleeveBOM.xlsx
+++ b/schematic/SmartSleeveBOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="129">
   <si>
     <t>Part Number</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Header 2mm (40 pins)</t>
   </si>
   <si>
-    <t>JACK TEST VERTICAL PC BLACK</t>
-  </si>
-  <si>
     <t>Unit Price</t>
   </si>
   <si>
@@ -134,36 +131,9 @@
     <t>Toolless</t>
   </si>
   <si>
-    <t>J570-ND</t>
-  </si>
-  <si>
     <t>2 Position Wire to Board Terminal Block </t>
   </si>
   <si>
-    <t>P4.02KDACT-ND</t>
-  </si>
-  <si>
-    <t>RES SMD 4.02K OHM 0.1% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>RR12P1.91KDCT-ND</t>
-  </si>
-  <si>
-    <t>RES SMD 1.91KOHM 0.5% 1/10W 0805</t>
-  </si>
-  <si>
-    <t>311-2774-1-ND</t>
-  </si>
-  <si>
-    <t>RES SMD 100K OHM 0.5% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>P127KCCT-ND</t>
-  </si>
-  <si>
-    <t>RES SMD 127K OHM 1% 1/8W 0805</t>
-  </si>
-  <si>
     <t>311-7.15KCRCT-ND</t>
   </si>
   <si>
@@ -224,12 +194,6 @@
     <t>RES SMD 22 OHM 5% 1/8W 0805</t>
   </si>
   <si>
-    <t>311-100KCRCT-ND</t>
-  </si>
-  <si>
-    <t>RES SMD 100K OHM 1% 1/8W 0805</t>
-  </si>
-  <si>
     <t>311-0.0ARCT-ND</t>
   </si>
   <si>
@@ -402,6 +366,48 @@
   </si>
   <si>
     <t>HOLE125</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>LT1790BCS6-3#TRMPBFCT-ND</t>
+  </si>
+  <si>
+    <t>IC VREF SERIES 3V SOT23-6</t>
+  </si>
+  <si>
+    <t>YAG1988CT-ND</t>
+  </si>
+  <si>
+    <t>RES SMD 8.2K OHM 0.1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>A110542CT-ND</t>
+  </si>
+  <si>
+    <t>RES SMD 976 OHM 0.1% 1/4W 0805</t>
+  </si>
+  <si>
+    <t>YAG1766CT-ND</t>
+  </si>
+  <si>
+    <t>RES SMD 113K OHM 0.1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>P100KDACT-ND</t>
+  </si>
+  <si>
+    <t>RES SMD 100K OHM 0.1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>36-575-8-ND</t>
+  </si>
+  <si>
+    <t>JACK NON-INSULATED .350"</t>
+  </si>
+  <si>
+    <t>SOT95P280X112-6N</t>
   </si>
   <si>
     <t>129-0701-202</t>
@@ -450,7 +456,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,12 +475,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -489,18 +489,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -510,17 +506,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -836,11 +837,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H21" sqref="H21"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -874,15 +875,15 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>28</v>
+      <c r="A2" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -892,860 +893,840 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="E3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="7">
         <f t="shared" ref="H3:H6" si="0">F3*G3</f>
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="13">
+        <v>250</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>7.34</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>14.68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="12">
-        <v>250</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="E5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
         <v>16.600000000000001</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="11">
         <f t="shared" si="0"/>
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="10" t="s">
+    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="E6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
         <v>20.72</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="11">
         <f t="shared" si="0"/>
         <v>20.72</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9">
+    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
         <v>0.93</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="11">
         <f t="shared" ref="H7:H32" si="1">F7*G7</f>
         <v>0.93</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="1"/>
+        <v>17.350000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1.86</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="1"/>
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0499999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>17.350000000000001</v>
-      </c>
-      <c r="H8" s="9">
-        <f t="shared" si="1"/>
-        <v>17.350000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="D12" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="E12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="1"/>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="D13" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="17">
-        <v>5</v>
-      </c>
-      <c r="G9" s="17">
-        <v>1.86</v>
-      </c>
-      <c r="H9" s="17">
-        <f t="shared" si="1"/>
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="14">
-        <v>2</v>
-      </c>
-      <c r="G10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="H10" s="14">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="14">
-        <v>3</v>
-      </c>
-      <c r="G11" s="14">
-        <v>0.39</v>
-      </c>
-      <c r="H11" s="14">
-        <f t="shared" si="1"/>
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="14">
-        <v>1</v>
-      </c>
-      <c r="G12" s="14">
-        <v>0.12</v>
-      </c>
-      <c r="H12" s="14">
-        <f t="shared" si="1"/>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="14">
-        <v>1</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="H13" s="14">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
+      <c r="E13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="14">
+        <v>96</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11">
         <v>0.1</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="11">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>56</v>
+        <v>38</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="14">
-        <v>1</v>
-      </c>
-      <c r="G15" s="14">
+        <v>102</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11">
         <v>0.96</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="11">
         <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="14">
+        <v>96</v>
+      </c>
+      <c r="F16" s="11">
         <v>2</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="11">
         <v>0.1</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="11">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>61</v>
+        <v>10</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="14">
+        <v>96</v>
+      </c>
+      <c r="F17" s="11">
         <v>2</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="11">
         <v>0.1</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="11">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="14">
+        <v>96</v>
+      </c>
+      <c r="F18" s="11">
         <v>2</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="11">
         <v>0.1</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="11">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>67</v>
+        <v>56</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" s="14">
-        <v>1</v>
-      </c>
-      <c r="G19" s="14">
+        <v>96</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11">
         <v>0.1</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="11">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>69</v>
+        <v>59</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="14">
-        <v>1</v>
-      </c>
-      <c r="G20" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="H20" s="14">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>101</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
+      <c r="G20" s="11">
+        <v>6.21</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="1"/>
+        <v>6.21</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="14">
-        <v>1</v>
-      </c>
-      <c r="G21" s="14">
-        <v>6.21</v>
-      </c>
-      <c r="H21" s="14">
-        <f t="shared" si="1"/>
-        <v>6.21</v>
+        <v>100</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0.54</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="1"/>
+        <v>0.54</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="14">
-        <v>1</v>
-      </c>
-      <c r="G22" s="14">
-        <v>0.54</v>
-      </c>
-      <c r="H22" s="14">
-        <f t="shared" si="1"/>
-        <v>0.54</v>
+        <v>99</v>
+      </c>
+      <c r="F22" s="11">
+        <v>3</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="H22" s="11">
+        <f t="shared" si="1"/>
+        <v>3.0300000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="14">
-        <v>3</v>
-      </c>
-      <c r="G23" s="14">
-        <v>1.01</v>
-      </c>
-      <c r="H23" s="14">
-        <f t="shared" si="1"/>
-        <v>3.0300000000000002</v>
+        <v>97</v>
+      </c>
+      <c r="F23" s="11">
+        <v>6</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="11">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>83</v>
+        <v>72</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="14">
-        <v>6</v>
-      </c>
-      <c r="G24" s="14">
+        <v>97</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1</v>
+      </c>
+      <c r="G24" s="11">
         <v>0.1</v>
       </c>
-      <c r="H24" s="14">
-        <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
+      <c r="H24" s="11">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="14">
-        <v>1</v>
-      </c>
-      <c r="G25" s="14">
+        <v>97</v>
+      </c>
+      <c r="F25" s="11">
+        <v>2</v>
+      </c>
+      <c r="G25" s="11">
         <v>0.1</v>
       </c>
-      <c r="H25" s="14">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
+      <c r="H25" s="11">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>89</v>
+        <v>78</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="14">
-        <v>2</v>
-      </c>
-      <c r="G26" s="14">
+        <v>97</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1</v>
+      </c>
+      <c r="G26" s="11">
         <v>0.1</v>
       </c>
-      <c r="H26" s="14">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+      <c r="H26" s="11">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="14">
-        <v>1</v>
-      </c>
-      <c r="G27" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="H27" s="14">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>103</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="H27" s="11">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>94</v>
+        <v>85</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" s="14">
-        <v>1</v>
-      </c>
-      <c r="G28" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="H28" s="14">
-        <f t="shared" si="1"/>
-        <v>4.2</v>
+        <v>104</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0.59</v>
+      </c>
+      <c r="H28" s="11">
+        <f t="shared" si="1"/>
+        <v>0.59</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>98</v>
+        <v>88</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="14">
-        <v>1</v>
-      </c>
-      <c r="G29" s="14">
-        <v>0.59</v>
-      </c>
-      <c r="H29" s="14">
-        <f t="shared" si="1"/>
-        <v>0.59</v>
+        <v>105</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="1"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" s="14">
-        <v>1</v>
-      </c>
-      <c r="G30" s="14">
-        <v>0.31</v>
-      </c>
-      <c r="H30" s="14">
-        <f t="shared" si="1"/>
-        <v>0.31</v>
+        <v>98</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1</v>
+      </c>
+      <c r="G30" s="11">
+        <v>2.41</v>
+      </c>
+      <c r="H30" s="11">
+        <f t="shared" si="1"/>
+        <v>2.41</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>107</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F31" s="14">
-        <v>1</v>
-      </c>
-      <c r="G31" s="14">
-        <v>2.41</v>
-      </c>
-      <c r="H31" s="14">
-        <f t="shared" si="1"/>
-        <v>2.41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" t="s">
-        <v>125</v>
-      </c>
-      <c r="F32" s="14">
-        <v>1</v>
-      </c>
-      <c r="G32" s="14">
+        <v>113</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1</v>
+      </c>
+      <c r="G31" s="11">
         <v>0</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H31" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C33" s="7"/>
-      <c r="D33" s="5"/>
+    <row r="32" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7">
+        <v>3.18</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="1"/>
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="18"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>5.17</v>
-      </c>
-      <c r="H35">
-        <f t="shared" ref="H35:H39" si="2">F35*G35</f>
-        <v>5.17</v>
-      </c>
+      <c r="A35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>18</v>
+      <c r="D36" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E36" t="s">
         <v>31</v>
@@ -1754,127 +1735,151 @@
         <v>1</v>
       </c>
       <c r="G36">
+        <v>5.17</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36:H40" si="2">F36*G36</f>
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
         <v>2.64</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <f t="shared" si="2"/>
         <v>2.64</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="7" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
         <v>1.6</v>
       </c>
-      <c r="H37">
+      <c r="H38">
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="9">
-        <v>1</v>
-      </c>
-      <c r="G38" s="9">
+    <row r="39" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="11">
+        <v>1</v>
+      </c>
+      <c r="G39" s="11">
         <v>50.42</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H39" s="11">
         <f t="shared" si="2"/>
         <v>50.42</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="10" t="s">
+    <row r="40" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="9">
-        <v>1</v>
-      </c>
-      <c r="G39" s="9">
+      <c r="C40" s="17"/>
+      <c r="D40" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="11">
+        <v>1</v>
+      </c>
+      <c r="G40" s="11">
         <v>9.9600000000000009</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H40" s="11">
         <f t="shared" si="2"/>
         <v>9.9600000000000009</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="3">
-        <f>SUM(F3:F39)</f>
+    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="3">
+        <f>SUM(F3:F40)</f>
         <v>54</v>
       </c>
-      <c r="H40" s="3">
-        <f>SUM(H3:H39)</f>
-        <v>173.41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="2"/>
+      <c r="H41" s="3">
+        <f>SUM(H3:H40)</f>
+        <v>165.21</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" t="s">
-        <v>77</v>
-      </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="https://www.adafruit.com/products/250"/>
-    <hyperlink ref="C11" r:id="rId2" display="http://www.digikey.com/product-detail/en/panasonic-electronic-components/ERA-6AEB4021V/P4.02KDACT-ND/3075123"/>
-    <hyperlink ref="C10" r:id="rId3" display="http://www.digikey.com/product-detail/en/susumu/RR1220P-1911-D-M/RR12P1.91KDCT-ND/677158"/>
-    <hyperlink ref="C12" r:id="rId4" display="http://www.digikey.com/product-detail/en/yageo/RT0805DRE07100KL/311-2774-1-ND/6129193"/>
-    <hyperlink ref="C13" r:id="rId5" display="http://www.digikey.com/product-detail/en/panasonic-electronic-components/ERJ-6ENF1273V/P127KCCT-ND/119581"/>
-    <hyperlink ref="C14" r:id="rId6" display="http://www.digikey.com/product-detail/en/yageo/RC0805FR-077K15L/311-7.15KCRCT-ND/731057"/>
-    <hyperlink ref="C15" r:id="rId7" display="http://www.digikey.com/product-detail/en/stmicroelectronics/LD1086D2T33TR/497-1224-1-ND/586224"/>
-    <hyperlink ref="C16" r:id="rId8" display="http://www.digikey.com/product-detail/en/yageo/RC0805FR-07100RL/311-100CRCT-ND/730490"/>
-    <hyperlink ref="C17" r:id="rId9" display="http://www.digikey.com/product-detail/en/yageo/RC0805JR-0710KL/311-10KARCT-ND/731188"/>
-    <hyperlink ref="C18" r:id="rId10" display="http://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0805JT22R0/RMCF0805JT22R0CT-ND/1942533"/>
-    <hyperlink ref="C19" r:id="rId11" display="http://www.digikey.com/product-detail/en/yageo/RC0805FR-07100KL/311-100KCRCT-ND/730491"/>
-    <hyperlink ref="C20" r:id="rId12" display="http://www.digikey.com/product-detail/en/yageo/RC0805JR-070RL/311-0.0ARCT-ND/731163"/>
-    <hyperlink ref="C21" r:id="rId13" display="http://www.digikey.com/product-detail/en/texas-instruments/INA327EA-250/296-15953-1-ND/606779"/>
-    <hyperlink ref="C22" r:id="rId14" display="http://www.digikey.com/product-detail/en/comchip-technology/CZRF52C3V3/641-1056-1-ND/1121178"/>
-    <hyperlink ref="C23" r:id="rId15" display="http://www.digikey.com/product-detail/en/avx-corporation/TAJP106M010RNJ/478-3281-1-ND/930073"/>
-    <hyperlink ref="C24" r:id="rId16" display="http://www.digikey.com/product-detail/en/avx-corporation/08055C104KAT2A/478-1395-1-ND/564427"/>
-    <hyperlink ref="C25" r:id="rId17" display="http://www.digikey.com/product-detail/en/yageo/CC0805KKX7R7BB105/311-1365-1-ND/2103149"/>
-    <hyperlink ref="C26" r:id="rId18" display="http://www.digikey.com/product-detail/en/samsung-electro-mechanics-america-inc/CL21C180JBANNNC/1276-1107-1-ND/3889193"/>
-    <hyperlink ref="C27" r:id="rId19" display="http://www.digikey.com/product-detail/en/kemet/C0805C102K5RACTU/399-1147-1-ND/411422"/>
-    <hyperlink ref="C28" r:id="rId20" display="http://www.digikey.com/product-detail/en/microchip-technology/ATMEGA32U4-AUR/ATMEGA32U4-AURCT-ND/3440960"/>
-    <hyperlink ref="C29" r:id="rId21" display="http://www.digikey.com/product-detail/en/txc-corporation/9C-16.000MEEJ-T/887-1274-1-ND/2207856"/>
+    <hyperlink ref="C14" r:id="rId2" display="http://www.digikey.com/product-detail/en/yageo/RC0805FR-077K15L/311-7.15KCRCT-ND/731057"/>
+    <hyperlink ref="C15" r:id="rId3" display="http://www.digikey.com/product-detail/en/stmicroelectronics/LD1086D2T33TR/497-1224-1-ND/586224"/>
+    <hyperlink ref="C16" r:id="rId4" display="http://www.digikey.com/product-detail/en/yageo/RC0805FR-07100RL/311-100CRCT-ND/730490"/>
+    <hyperlink ref="C17" r:id="rId5" display="http://www.digikey.com/product-detail/en/yageo/RC0805JR-0710KL/311-10KARCT-ND/731188"/>
+    <hyperlink ref="C18" r:id="rId6" display="http://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0805JT22R0/RMCF0805JT22R0CT-ND/1942533"/>
+    <hyperlink ref="C19" r:id="rId7" display="http://www.digikey.com/product-detail/en/yageo/RC0805JR-070RL/311-0.0ARCT-ND/731163"/>
+    <hyperlink ref="C20" r:id="rId8" display="http://www.digikey.com/product-detail/en/texas-instruments/INA327EA-250/296-15953-1-ND/606779"/>
+    <hyperlink ref="C21" r:id="rId9" display="http://www.digikey.com/product-detail/en/comchip-technology/CZRF52C3V3/641-1056-1-ND/1121178"/>
+    <hyperlink ref="C22" r:id="rId10" display="http://www.digikey.com/product-detail/en/avx-corporation/TAJP106M010RNJ/478-3281-1-ND/930073"/>
+    <hyperlink ref="C23" r:id="rId11" display="http://www.digikey.com/product-detail/en/avx-corporation/08055C104KAT2A/478-1395-1-ND/564427"/>
+    <hyperlink ref="C24" r:id="rId12" display="http://www.digikey.com/product-detail/en/yageo/CC0805KKX7R7BB105/311-1365-1-ND/2103149"/>
+    <hyperlink ref="C25" r:id="rId13" display="http://www.digikey.com/product-detail/en/samsung-electro-mechanics-america-inc/CL21C180JBANNNC/1276-1107-1-ND/3889193"/>
+    <hyperlink ref="C26" r:id="rId14" display="http://www.digikey.com/product-detail/en/kemet/C0805C102K5RACTU/399-1147-1-ND/411422"/>
+    <hyperlink ref="C27" r:id="rId15" display="http://www.digikey.com/product-detail/en/microchip-technology/ATMEGA32U4-AUR/ATMEGA32U4-AURCT-ND/3440960"/>
+    <hyperlink ref="C28" r:id="rId16" display="http://www.digikey.com/product-detail/en/txc-corporation/9C-16.000MEEJ-T/887-1274-1-ND/2207856"/>
+    <hyperlink ref="C32" r:id="rId17" display="http://www.digikey.com/product-detail/en/linear-technology/LT1790BCS6-3-TRMPBF/LT1790BCS6-3-TRMPBFCT-ND/889008"/>
+    <hyperlink ref="C11" r:id="rId18" display="http://www.digikey.com/product-detail/en/yageo/RT0805BRD078K2L/YAG1988CT-ND/5139436"/>
+    <hyperlink ref="C10" r:id="rId19" display="http://www.digikey.com/product-detail/en/te-connectivity-passive-product/1-2176092-7/A110542CT-ND/4034897"/>
+    <hyperlink ref="C13" r:id="rId20" display="http://www.digikey.com/product-detail/en/yageo/RT0805BRD07113KL/YAG1766CT-ND/5139214"/>
+    <hyperlink ref="C12" r:id="rId21" display="http://www.digikey.com/product-detail/en/panasonic-electronic-components/ERA-6AEB104V/P100KDACT-ND/1465995"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId22"/>

--- a/schematic/SmartSleeveBOM.xlsx
+++ b/schematic/SmartSleeveBOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -221,9 +221,6 @@
     <t>641-1056-1-ND</t>
   </si>
   <si>
-    <t>ORDERED</t>
-  </si>
-  <si>
     <t>C1,C7,C8</t>
   </si>
   <si>
@@ -411,6 +408,9 @@
   </si>
   <si>
     <t>129-0701-202</t>
+  </si>
+  <si>
+    <t>Obmitted from Design FJL 03/07/2017</t>
   </si>
 </sst>
 </file>
@@ -465,13 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,7 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -501,14 +501,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -521,7 +515,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -837,11 +836,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,183 +892,183 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="9" t="s">
+    <row r="3" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="E3" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="15">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="15">
         <f t="shared" ref="H3:H6" si="0">F3*G3</f>
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10" t="s">
+    <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="15">
         <v>2</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="15">
         <v>0.99</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="15">
         <f t="shared" si="0"/>
         <v>1.98</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="9">
         <v>250</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="E5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
         <v>16.600000000000001</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="7">
         <f t="shared" si="0"/>
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="E6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
         <v>20.72</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="7">
         <f t="shared" si="0"/>
         <v>20.72</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="16" t="s">
+    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="E7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
         <v>0.93</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="7">
         <f t="shared" ref="H7:H32" si="1">F7*G7</f>
         <v>0.93</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="15" t="s">
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="E8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
         <v>17.350000000000001</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="7">
         <f t="shared" si="1"/>
         <v>17.350000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="F9" s="7">
         <v>5</v>
@@ -1089,14 +1088,14 @@
       <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="7">
         <v>2</v>
@@ -1116,14 +1115,14 @@
       <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="E11" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" s="7">
         <v>3</v>
@@ -1143,14 +1142,14 @@
       <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>124</v>
-      </c>
       <c r="E12" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F12" s="7">
         <v>1</v>
@@ -1170,14 +1169,14 @@
       <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F13" s="7">
         <v>1</v>
@@ -1204,15 +1203,15 @@
         <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="11">
-        <v>1</v>
-      </c>
-      <c r="G14" s="11">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
         <v>0.1</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="7">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
@@ -1231,15 +1230,15 @@
         <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="11">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11">
+        <v>101</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
         <v>0.96</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="7">
         <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
@@ -1258,15 +1257,15 @@
         <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="11">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7">
         <v>2</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="7">
         <v>0.1</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="7">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
@@ -1278,22 +1277,22 @@
       <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="8" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="11">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7">
         <v>2</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="7">
         <v>0.1</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="7">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
@@ -1312,15 +1311,15 @@
         <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="11">
+        <v>95</v>
+      </c>
+      <c r="F18" s="7">
         <v>2</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="7">
         <v>0.1</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="7">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
@@ -1339,15 +1338,15 @@
         <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="11">
-        <v>1</v>
-      </c>
-      <c r="G19" s="11">
+        <v>95</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7">
         <v>0.1</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="7">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
@@ -1366,15 +1365,15 @@
         <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="11">
-        <v>1</v>
-      </c>
-      <c r="G20" s="11">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
         <v>6.21</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="7">
         <f t="shared" si="1"/>
         <v>6.21</v>
       </c>
@@ -1393,304 +1392,304 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="11">
-        <v>1</v>
-      </c>
-      <c r="G21" s="11">
+        <v>99</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7">
         <v>0.54</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="7">
         <f t="shared" si="1"/>
         <v>0.54</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="E22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="11">
+        <v>98</v>
+      </c>
+      <c r="F22" s="7">
         <v>3</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="7">
         <v>1.01</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="7">
         <f t="shared" si="1"/>
         <v>3.0300000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="E23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="11">
+        <v>96</v>
+      </c>
+      <c r="F23" s="7">
         <v>6</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="7">
         <v>0.1</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="7">
         <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="E24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="11">
-        <v>1</v>
-      </c>
-      <c r="G24" s="11">
+        <v>96</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
         <v>0.1</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="7">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="E25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="11">
+        <v>96</v>
+      </c>
+      <c r="F25" s="7">
         <v>2</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="7">
         <v>0.1</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="7">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="E26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="11">
-        <v>1</v>
-      </c>
-      <c r="G26" s="11">
+        <v>96</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
         <v>0.1</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="7">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="E27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="11">
-        <v>1</v>
-      </c>
-      <c r="G27" s="11">
+        <v>102</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7">
         <v>4.2</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="7">
         <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="E28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="11">
-        <v>1</v>
-      </c>
-      <c r="G28" s="11">
+        <v>103</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7">
         <v>0.59</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="7">
         <f t="shared" si="1"/>
         <v>0.59</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="E29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="11">
-        <v>1</v>
-      </c>
-      <c r="G29" s="11">
+        <v>104</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7">
         <v>0.31</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="7">
         <f t="shared" si="1"/>
         <v>0.31</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="E30" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="11">
-        <v>1</v>
-      </c>
-      <c r="G30" s="11">
+        <v>97</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7">
         <v>2.41</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="7">
         <f t="shared" si="1"/>
         <v>2.41</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="E31" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" s="11">
-        <v>1</v>
-      </c>
-      <c r="G31" s="11">
+        <v>112</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7">
         <v>0</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="19" t="s">
+      <c r="D32" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="E32" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F32" s="7">
         <v>1</v>
@@ -1703,9 +1702,9 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="18"/>
-      <c r="D33" s="15"/>
+    <row r="33" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="14"/>
+      <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C34" s="5"/>
@@ -1790,40 +1789,40 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="11" t="s">
+    <row r="39" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="15" t="s">
+      <c r="C39" s="13"/>
+      <c r="D39" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="11">
-        <v>1</v>
-      </c>
-      <c r="G39" s="11">
+      <c r="F39" s="7">
+        <v>1</v>
+      </c>
+      <c r="G39" s="7">
         <v>50.42</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="7">
         <f t="shared" si="2"/>
         <v>50.42</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="11" t="s">
+    <row r="40" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="15" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F40" s="11">
-        <v>1</v>
-      </c>
-      <c r="G40" s="11">
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7">
         <v>9.9600000000000009</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="7">
         <f t="shared" si="2"/>
         <v>9.9600000000000009</v>
       </c>
@@ -1845,17 +1844,14 @@
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
+      <c r="A43" s="15"/>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C45" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
